--- a/DB/DatabaseDecisionTable.xlsx
+++ b/DB/DatabaseDecisionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasheed\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09283F86-F011-4866-B402-B360091B0482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2127CF-E4D6-4B69-A1C4-3D2B0C8E2A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A0F15EFF-6209-47E5-A664-E040C06EB652}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>Rules</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>redshift</t>
+  </si>
+  <si>
+    <t>Original URL: https://github.com/ITLec/Doc/blob/master/DB/DatabaseDecisionTable.xlsx</t>
+  </si>
+  <si>
+    <t>Azure Cosmos DB</t>
+  </si>
+  <si>
+    <t>MariaBD</t>
   </si>
 </sst>
 </file>
@@ -225,21 +234,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8CDAE6-A930-4464-9386-51859FB037B6}">
-  <dimension ref="A2:R33"/>
+  <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,318 +580,336 @@
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -898,6 +925,9 @@
       <c r="B21" t="s">
         <v>18</v>
       </c>
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -966,6 +996,16 @@
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
